--- a/sst_template.xlsx
+++ b/sst_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\12. Rohit POC\5. binance\1. sst\sst\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B61796F-FE87-480F-BEFE-4A07CF996592}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A65A9C4B-ABCF-4E35-8CE5-2359A492687B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -292,10 +292,10 @@
     <t>Update GTT order?</t>
   </si>
   <si>
-    <t>COCOUSDT</t>
-  </si>
-  <si>
-    <t>CTXUSDT</t>
+    <t>COCOSUSDT</t>
+  </si>
+  <si>
+    <t>CTXCUSDT</t>
   </si>
 </sst>
 </file>
@@ -725,8 +725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I310"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A77" sqref="A77:XFD83"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="A76" sqref="A76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/sst_template.xlsx
+++ b/sst_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\12. Rohit POC\5. binance\1. sst\sst\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A65A9C4B-ABCF-4E35-8CE5-2359A492687B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEB230E3-7664-4775-BC73-DA93DC95B4F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Tracking" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Main!$A$1:$I$313</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Main!$A$1:$I$76</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -723,10 +723,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I310"/>
+  <dimension ref="A1:I76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="A76" sqref="A76"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1171,62 +1171,8 @@
         <v>89</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G80" s="11"/>
-    </row>
-    <row r="87" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G87" s="11"/>
-    </row>
-    <row r="121" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G121" s="11"/>
-    </row>
-    <row r="130" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G130" s="11"/>
-    </row>
-    <row r="132" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G132" s="11"/>
-    </row>
-    <row r="146" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G146" s="11"/>
-    </row>
-    <row r="173" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G173" s="11"/>
-    </row>
-    <row r="183" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G183" s="11"/>
-    </row>
-    <row r="214" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G214" s="11"/>
-    </row>
-    <row r="231" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G231" s="11"/>
-    </row>
-    <row r="244" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G244" s="11"/>
-    </row>
-    <row r="262" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G262" s="11"/>
-    </row>
-    <row r="264" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G264" s="11"/>
-    </row>
-    <row r="272" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G272" s="11"/>
-    </row>
-    <row r="293" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G293" s="11"/>
-    </row>
-    <row r="295" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G295" s="11"/>
-    </row>
-    <row r="308" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G308" s="11"/>
-    </row>
-    <row r="310" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G310" s="11"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:I313" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:I76" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
